--- a/test.xlsx
+++ b/test.xlsx
@@ -2,35 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="12405" windowHeight="11940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第1表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第2表" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第3表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第4表" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第5表" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第6表" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第7表" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第8表" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第9表" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp_feedbacker" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,14 +55,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'temp_feedbacker'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'temp_feedbacker'!$A$2:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'temp_feedbacker'!$B$2:$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,15 +499,648 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="54" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>丁小永1
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="54" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>丁小永2
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="54" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>丁小永2
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="54" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>丁小永2
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="54" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>丁小永3
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="54" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>丁小永4
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="54" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>丁小永4
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="54" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>丁小永5
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="54" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>丁小永6
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>43958</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>jielink2.5.1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="54" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>丁小永7
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>43959</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>jielink2.5.2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="54" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>丁小永8
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>43960</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>jielink2.5.3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="54" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>丁小永8
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>43961</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>jielink2.5.4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="54" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>丁小永9
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>43962</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>jielink2.5.5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="54" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>丁小永7
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>43963</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>jielink2.5.6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -371,140 +1150,117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>次数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>丁小永2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>丁小永4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>丁小永7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>丁小永8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丁小永1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>丁小永3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>丁小永5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>丁小永6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>丁小永9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>